--- a/PythonResources/Data/Consumption/Sympheny/futu_1676_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1676_coo.xlsx
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>18.39454512737161</v>
+        <v>18.3945451273716</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -27311,7 +27311,7 @@
         <v>3371</v>
       </c>
       <c r="B3371">
-        <v>8.366328247769291</v>
+        <v>8.366328247769289</v>
       </c>
     </row>
     <row r="3372" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>42.01730174183842</v>
+        <v>42.01730174183841</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>71.99143529196617</v>
+        <v>71.99143529196616</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -31327,7 +31327,7 @@
         <v>3873</v>
       </c>
       <c r="B3873">
-        <v>32.37174771741622</v>
+        <v>32.37174771741621</v>
       </c>
     </row>
     <row r="3874" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>48.98242804666395</v>
+        <v>48.98242804666394</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>50.53687683572373</v>
+        <v>50.53687683572372</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31535,7 +31535,7 @@
         <v>3899</v>
       </c>
       <c r="B3899">
-        <v>37.78564901460725</v>
+        <v>37.78564901460724</v>
       </c>
     </row>
     <row r="3900" spans="1:2">
@@ -31751,7 +31751,7 @@
         <v>3926</v>
       </c>
       <c r="B3926">
-        <v>34.60377674786103</v>
+        <v>34.60377674786102</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>36.06356359143319</v>
+        <v>36.06356359143318</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>24.03264576913857</v>
+        <v>24.03264576913856</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>47.8083854657866</v>
+        <v>47.80838546578659</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>53.20177179027134</v>
+        <v>53.20177179027133</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>56.42438093139149</v>
+        <v>56.42438093139148</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>41.26557452767207</v>
+        <v>41.26557452767206</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>52.95207526533187</v>
+        <v>52.95207526533186</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>28.68233502591628</v>
+        <v>28.68233502591627</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>53.57631657768054</v>
+        <v>53.57631657768053</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>61.74156878582428</v>
+        <v>61.74156878582427</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>63.39478251491293</v>
+        <v>63.39478251491292</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>89.98365249746348</v>
+        <v>89.98365249746347</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>93.61656109270952</v>
+        <v>93.6165610927095</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>6.516727615673674</v>
+        <v>6.516727615673673</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>8.504394014082651</v>
+        <v>8.504394014082649</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35551,7 +35551,7 @@
         <v>4401</v>
       </c>
       <c r="B4401">
-        <v>70.67994239395665</v>
+        <v>70.67994239395664</v>
       </c>
     </row>
     <row r="4402" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>53.32398241339312</v>
+        <v>53.32398241339311</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36703,7 +36703,7 @@
         <v>4545</v>
       </c>
       <c r="B4545">
-        <v>63.22128446002541</v>
+        <v>63.2212844600254</v>
       </c>
     </row>
     <row r="4546" spans="1:2">
@@ -36719,7 +36719,7 @@
         <v>4547</v>
       </c>
       <c r="B4547">
-        <v>75.5455077778123</v>
+        <v>75.54550777781229</v>
       </c>
     </row>
     <row r="4548" spans="1:2">
@@ -36895,7 +36895,7 @@
         <v>4569</v>
       </c>
       <c r="B4569">
-        <v>51.11774363435051</v>
+        <v>51.1177436343505</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>71.2959777172228</v>
+        <v>71.29597771722278</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>76.35350463140163</v>
+        <v>76.35350463140162</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>67.24573596292301</v>
+        <v>67.24573596292299</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>75.42886550442509</v>
+        <v>75.42886550442508</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>60.97694644595683</v>
+        <v>60.97694644595682</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>40.20319201252469</v>
+        <v>40.20319201252468</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37503,7 +37503,7 @@
         <v>4645</v>
       </c>
       <c r="B4645">
-        <v>52.14407841174254</v>
+        <v>52.14407841174253</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>92.26140060993946</v>
+        <v>92.26140060993944</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>65.16669001465942</v>
+        <v>65.16669001465941</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>70.07328534392767</v>
+        <v>70.07328534392765</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>62.03932896110421</v>
+        <v>62.0393289611042</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>65.85687231070689</v>
+        <v>65.85687231070688</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>47.19410856875242</v>
+        <v>47.19410856875241</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>71.73177435171222</v>
+        <v>71.7317743517122</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>81.75949301054881</v>
+        <v>81.75949301054879</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39975,7 +39975,7 @@
         <v>4954</v>
       </c>
       <c r="B4954">
-        <v>78.17494113668189</v>
+        <v>78.17494113668188</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>85.15589327759514</v>
+        <v>85.15589327759513</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40175,7 +40175,7 @@
         <v>4979</v>
       </c>
       <c r="B4979">
-        <v>78.11603385791096</v>
+        <v>78.11603385791095</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>1.561089778795842</v>
+        <v>1.561089778795841</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>98.93111130779435</v>
+        <v>98.93111130779434</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -42135,7 +42135,7 @@
         <v>5224</v>
       </c>
       <c r="B5224">
-        <v>22.76227073785324</v>
+        <v>22.76227073785323</v>
       </c>
     </row>
     <row r="5225" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>68.22136945062663</v>
+        <v>68.22136945062661</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>77.08207923351374</v>
+        <v>77.08207923351372</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>60.06227173429477</v>
+        <v>60.06227173429476</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>63.3669407662401</v>
+        <v>63.36694076624009</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>67.34977618164778</v>
+        <v>67.34977618164777</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43999,7 +43999,7 @@
         <v>5457</v>
       </c>
       <c r="B5457">
-        <v>46.42450402122773</v>
+        <v>46.42450402122772</v>
       </c>
     </row>
     <row r="5458" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>87.35421913859389</v>
+        <v>87.35421913859388</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>36.84313255427237</v>
+        <v>36.84313255427236</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>52.65138437966533</v>
+        <v>52.65138437966532</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46311,7 +46311,7 @@
         <v>5746</v>
       </c>
       <c r="B5746">
-        <v>50.90380177612773</v>
+        <v>50.90380177612772</v>
       </c>
     </row>
     <row r="5747" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>45.32665991040233</v>
+        <v>45.32665991040232</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>66.97024918658134</v>
+        <v>66.97024918658133</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>56.16706455944683</v>
+        <v>56.16706455944682</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>33.73745875757809</v>
+        <v>33.73745875757808</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>42.85020963371396</v>
+        <v>42.85020963371395</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>67.65837998535818</v>
+        <v>67.65837998535817</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -48031,7 +48031,7 @@
         <v>5961</v>
       </c>
       <c r="B5961">
-        <v>43.43400714272736</v>
+        <v>43.43400714272735</v>
       </c>
     </row>
     <row r="5962" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>49.58879202565427</v>
+        <v>49.58879202565426</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48047,7 +48047,7 @@
         <v>5963</v>
       </c>
       <c r="B5963">
-        <v>54.77878704930804</v>
+        <v>54.77878704930803</v>
       </c>
     </row>
     <row r="5964" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>54.72486197819435</v>
+        <v>54.72486197819434</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49039,7 +49039,7 @@
         <v>6087</v>
       </c>
       <c r="B6087">
-        <v>63.76932730232213</v>
+        <v>63.76932730232212</v>
       </c>
     </row>
     <row r="6088" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>38.4274745892756</v>
+        <v>38.42747458927559</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>50.32029733815299</v>
+        <v>50.32029733815298</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>35.72213583139272</v>
+        <v>35.72213583139271</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>28.94817976508599</v>
+        <v>28.94817976508598</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49607,7 +49607,7 @@
         <v>6158</v>
       </c>
       <c r="B6158">
-        <v>57.4940902225054</v>
+        <v>57.49409022250539</v>
       </c>
     </row>
     <row r="6159" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>54.87051828440904</v>
+        <v>54.87051828440903</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50375,7 +50375,7 @@
         <v>6254</v>
       </c>
       <c r="B6254">
-        <v>62.37079230583019</v>
+        <v>62.37079230583018</v>
       </c>
     </row>
     <row r="6255" spans="1:2">
@@ -51911,7 +51911,7 @@
         <v>6446</v>
       </c>
       <c r="B6446">
-        <v>25.1253611367874</v>
+        <v>25.12536113678739</v>
       </c>
     </row>
     <row r="6447" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>11.66920954637879</v>
+        <v>11.66920954637878</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>7.28486680800506</v>
+        <v>7.284866808005059</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>4.584363722260094</v>
+        <v>4.584363722260093</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
